--- a/docs/00_Tools/06_02_03_DE_Service_Location_Planner.xlsx
+++ b/docs/00_Tools/06_02_03_DE_Service_Location_Planner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\OneDrive - UT Cloud\Toolkit\Übersetzung\Tools\06_Service_ToDo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\OneDrive - UT Cloud\Github\Lernraum-Toolkit.github.io\docs\00_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Service 1</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>C: Angeboten innerhalb der Öffnungszeiten</t>
+  </si>
+  <si>
+    <t>Übersetzung: Katharina Zinke, Universitätsbibliothek Tübingen; lizenziert unter CC BY 4.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -155,6 +158,16 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -252,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -288,20 +301,26 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -634,11 +653,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -648,34 +667,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -686,56 +697,56 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -748,7 +759,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -761,7 +772,7 @@
     </row>
     <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -774,7 +785,7 @@
     </row>
     <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -787,7 +798,7 @@
     </row>
     <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -799,7 +810,9 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1260,46 +1273,44 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -1311,8 +1322,8 @@
       <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>23</v>
+      <c r="A58" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -1324,8 +1335,8 @@
       <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>21</v>
+      <c r="A59" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -1336,39 +1347,52 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:I53">
+  <conditionalFormatting sqref="B7:I54">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(B6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("a"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I53">
+  <conditionalFormatting sqref="B7:I54">
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="b">
-      <formula>NOT(ISERROR(SEARCH(("b"),(B6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("b"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I53">
+  <conditionalFormatting sqref="B7:I54">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="c">
-      <formula>NOT(ISERROR(SEARCH(("c"),(B6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("c"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I53">
+  <conditionalFormatting sqref="B7:I54">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="d">
-      <formula>NOT(ISERROR(SEARCH(("d"),(B6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("d"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I53">
+  <conditionalFormatting sqref="B7:I54">
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="e">
-      <formula>NOT(ISERROR(SEARCH(("e"),(B6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("e"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I53">
+  <conditionalFormatting sqref="B7:I54">
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="f">
-      <formula>NOT(ISERROR(SEARCH(("f"),(B6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("f"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
